--- a/Receptive Field.xlsx
+++ b/Receptive Field.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bp365-my.sharepoint.com/personal/malay_maiti_bp_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamh4s\EVA5\Course1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{5C792B8A-E3A2-4A0E-B1F8-1A8030157FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3F9E138-8B03-41D9-91CB-3F85937B9DB3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC40F695-A42F-4BF2-AC72-BD1329F6D912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4EFA7367-64DD-438E-A8C0-677F2191E8AA}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22335" windowHeight="15600" xr2:uid="{4EFA7367-64DD-438E-A8C0-677F2191E8AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Receptive Field.xlsx
+++ b/Receptive Field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamh4s\EVA5\Course1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC40F695-A42F-4BF2-AC72-BD1329F6D912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDDF798-6815-4F4B-A9B0-2F21185A70AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22335" windowHeight="15600" xr2:uid="{4EFA7367-64DD-438E-A8C0-677F2191E8AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4EFA7367-64DD-438E-A8C0-677F2191E8AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,6 +214,50 @@
         <a:xfrm>
           <a:off x="10382250" y="400050"/>
           <a:ext cx="4276725" cy="4409042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>208854</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CFE88E-3838-4BFB-AEC8-E3B6A73697DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="4524375"/>
+          <a:ext cx="5571429" cy="1257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
